--- a/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4550</v>
+        <v>4548</v>
       </c>
       <c r="D17" t="n">
         <v>831</v>
       </c>
       <c r="E17" t="n">
-        <v>22865659</v>
+        <v>22857743</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>186331</v>
+        <v>186330</v>
       </c>
       <c r="D100" t="n">
         <v>37747</v>
       </c>
       <c r="E100" t="n">
-        <v>306246904</v>
+        <v>306246664</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>84944</v>
+        <v>84939</v>
       </c>
       <c r="D105" t="n">
         <v>16087</v>
       </c>
       <c r="E105" t="n">
-        <v>401454980</v>
+        <v>401394388</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>62491</v>
+        <v>62490</v>
       </c>
       <c r="D108" t="n">
         <v>10954</v>
       </c>
       <c r="E108" t="n">
-        <v>340002241</v>
+        <v>339992241</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -10192,13 +10192,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>37579</v>
+        <v>37577</v>
       </c>
       <c r="D192" t="n">
         <v>8493</v>
       </c>
       <c r="E192" t="n">
-        <v>76083396</v>
+        <v>76083324</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -12895,13 +12895,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>5776</v>
+        <v>5775</v>
       </c>
       <c r="D245" t="n">
         <v>1133</v>
       </c>
       <c r="E245" t="n">
-        <v>24343308</v>
+        <v>24337561</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -15088,13 +15088,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>14205</v>
+        <v>14204</v>
       </c>
       <c r="D288" t="n">
         <v>2289</v>
       </c>
       <c r="E288" t="n">
-        <v>94111398</v>
+        <v>94110798</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -16006,13 +16006,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>6084</v>
+        <v>6083</v>
       </c>
       <c r="D306" t="n">
         <v>1239</v>
       </c>
       <c r="E306" t="n">
-        <v>26906084</v>
+        <v>26900708</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -16771,13 +16771,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>76025</v>
+        <v>76024</v>
       </c>
       <c r="D321" t="n">
         <v>15907</v>
       </c>
       <c r="E321" t="n">
-        <v>132426430</v>
+        <v>132420461</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -17077,13 +17077,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>47891</v>
+        <v>47890</v>
       </c>
       <c r="D327" t="n">
         <v>9067</v>
       </c>
       <c r="E327" t="n">
-        <v>240487313</v>
+        <v>240480465</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -17995,13 +17995,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D345" t="n">
         <v>21</v>
       </c>
       <c r="E345" t="n">
-        <v>5675074</v>
+        <v>5633874</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18405</v>
+        <v>18404</v>
       </c>
       <c r="D399" t="n">
         <v>3382</v>
       </c>
       <c r="E399" t="n">
-        <v>72117092</v>
+        <v>72097061</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -20851,13 +20851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>16555</v>
+        <v>16554</v>
       </c>
       <c r="D401" t="n">
         <v>2942</v>
       </c>
       <c r="E401" t="n">
-        <v>48245887</v>
+        <v>48244387</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -22075,13 +22075,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>70510</v>
+        <v>70509</v>
       </c>
       <c r="D425" t="n">
         <v>13142</v>
       </c>
       <c r="E425" t="n">
-        <v>343031318</v>
+        <v>343021318</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>20231</v>
+        <v>20230</v>
       </c>
       <c r="D435" t="n">
         <v>4036</v>
       </c>
       <c r="E435" t="n">
-        <v>93020853</v>
+        <v>93010853</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>14442</v>
+        <v>14441</v>
       </c>
       <c r="D437" t="n">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E437" t="n">
-        <v>69130582</v>
+        <v>69127602</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -23044,13 +23044,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>31759</v>
+        <v>31758</v>
       </c>
       <c r="D444" t="n">
         <v>6195</v>
       </c>
       <c r="E444" t="n">
-        <v>161385286</v>
+        <v>161380032</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>35036</v>
+        <v>35033</v>
       </c>
       <c r="D463" t="n">
         <v>7039</v>
       </c>
       <c r="E463" t="n">
-        <v>159879837</v>
+        <v>159828648</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416409</v>
+        <v>416403</v>
       </c>
       <c r="D477" t="n">
         <v>70491</v>
       </c>
       <c r="E477" t="n">
-        <v>723871781</v>
+        <v>723832135</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -24982,13 +24982,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="D482" t="n">
         <v>520</v>
       </c>
       <c r="E482" t="n">
-        <v>69649630</v>
+        <v>69648130</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -25033,13 +25033,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D483" t="n">
         <v>33</v>
       </c>
       <c r="E483" t="n">
-        <v>5333530</v>
+        <v>5323530</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>291449</v>
+        <v>291440</v>
       </c>
       <c r="D484" t="n">
         <v>42556</v>
       </c>
       <c r="E484" t="n">
-        <v>1761471642</v>
+        <v>1761369173</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25135,13 +25135,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="D485" t="n">
         <v>420</v>
       </c>
       <c r="E485" t="n">
-        <v>98202958</v>
+        <v>98156372</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230083</v>
+        <v>230080</v>
       </c>
       <c r="D487" t="n">
         <v>33834</v>
       </c>
       <c r="E487" t="n">
-        <v>1801990470</v>
+        <v>1801816842</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12209</v>
+        <v>12207</v>
       </c>
       <c r="D491" t="n">
         <v>1838</v>
       </c>
       <c r="E491" t="n">
-        <v>74110981</v>
+        <v>74107425</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184197</v>
+        <v>184196</v>
       </c>
       <c r="D505" t="n">
         <v>27732</v>
       </c>
       <c r="E505" t="n">
-        <v>332561206</v>
+        <v>332557721</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56033</v>
+        <v>56031</v>
       </c>
       <c r="D520" t="n">
         <v>8768</v>
       </c>
       <c r="E520" t="n">
-        <v>252149237</v>
+        <v>252086256</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27889,13 +27889,13 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D539" t="n">
         <v>248</v>
       </c>
       <c r="E539" t="n">
-        <v>7581562</v>
+        <v>7569421</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>24513</v>
+        <v>24512</v>
       </c>
       <c r="D545" t="n">
         <v>6169</v>
       </c>
       <c r="E545" t="n">
-        <v>88165149</v>
+        <v>88163649</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39269</v>
+        <v>39255</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>59810882</v>
+        <v>59799025</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>17975</v>
+        <v>17967</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>69519959</v>
+        <v>69446902</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -28858,13 +28858,13 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D558" t="n">
         <v>133</v>
       </c>
       <c r="E558" t="n">
-        <v>1388087</v>
+        <v>1385587</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -31153,13 +31153,13 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>32182</v>
+        <v>32181</v>
       </c>
       <c r="D603" t="n">
         <v>6078</v>
       </c>
       <c r="E603" t="n">
-        <v>170257117</v>
+        <v>170255679</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -41863,13 +41863,13 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>50343</v>
+        <v>50342</v>
       </c>
       <c r="D813" t="n">
         <v>10678</v>
       </c>
       <c r="E813" t="n">
-        <v>86497731</v>
+        <v>86496231</v>
       </c>
       <c r="F813" t="inlineStr">
         <is>
@@ -43444,13 +43444,13 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>58388</v>
+        <v>58387</v>
       </c>
       <c r="D844" t="n">
         <v>11374</v>
       </c>
       <c r="E844" t="n">
-        <v>290384699</v>
+        <v>290383199</v>
       </c>
       <c r="F844" t="inlineStr">
         <is>
@@ -44923,13 +44923,13 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>41827</v>
+        <v>41825</v>
       </c>
       <c r="D873" t="n">
         <v>9646</v>
       </c>
       <c r="E873" t="n">
-        <v>75019853</v>
+        <v>75018942</v>
       </c>
       <c r="F873" t="inlineStr">
         <is>
@@ -45994,13 +45994,13 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>167269</v>
+        <v>167268</v>
       </c>
       <c r="D894" t="n">
         <v>30742</v>
       </c>
       <c r="E894" t="n">
-        <v>280748586</v>
+        <v>280746100</v>
       </c>
       <c r="F894" t="inlineStr">
         <is>
@@ -47065,13 +47065,13 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>96838</v>
+        <v>96837</v>
       </c>
       <c r="D915" t="n">
         <v>17575</v>
       </c>
       <c r="E915" t="n">
-        <v>463179168</v>
+        <v>463177376</v>
       </c>
       <c r="F915" t="inlineStr">
         <is>
@@ -47218,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>79063</v>
+        <v>79062</v>
       </c>
       <c r="D918" t="n">
         <v>13382</v>
       </c>
       <c r="E918" t="n">
-        <v>390375033</v>
+        <v>390373035</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
@@ -47932,13 +47932,13 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>127919</v>
+        <v>127918</v>
       </c>
       <c r="D932" t="n">
         <v>26954</v>
       </c>
       <c r="E932" t="n">
-        <v>215181430</v>
+        <v>215179588</v>
       </c>
       <c r="F932" t="inlineStr">
         <is>
@@ -48646,13 +48646,13 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>29823</v>
+        <v>29822</v>
       </c>
       <c r="D946" t="n">
         <v>5383</v>
       </c>
       <c r="E946" t="n">
-        <v>141907706</v>
+        <v>141897706</v>
       </c>
       <c r="F946" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4548</v>
+        <v>4550</v>
       </c>
       <c r="D17" t="n">
         <v>831</v>
       </c>
       <c r="E17" t="n">
-        <v>22857743</v>
+        <v>22865659</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>186330</v>
+        <v>186331</v>
       </c>
       <c r="D100" t="n">
         <v>37747</v>
       </c>
       <c r="E100" t="n">
-        <v>306246664</v>
+        <v>306246904</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>84939</v>
+        <v>84944</v>
       </c>
       <c r="D105" t="n">
         <v>16087</v>
       </c>
       <c r="E105" t="n">
-        <v>401394388</v>
+        <v>401454980</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>62490</v>
+        <v>62491</v>
       </c>
       <c r="D108" t="n">
         <v>10954</v>
       </c>
       <c r="E108" t="n">
-        <v>339992241</v>
+        <v>340002241</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -10192,13 +10192,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>37577</v>
+        <v>37579</v>
       </c>
       <c r="D192" t="n">
         <v>8493</v>
       </c>
       <c r="E192" t="n">
-        <v>76083324</v>
+        <v>76083396</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -12895,13 +12895,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="D245" t="n">
         <v>1133</v>
       </c>
       <c r="E245" t="n">
-        <v>24337561</v>
+        <v>24343308</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -15088,13 +15088,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>14204</v>
+        <v>14205</v>
       </c>
       <c r="D288" t="n">
         <v>2289</v>
       </c>
       <c r="E288" t="n">
-        <v>94110798</v>
+        <v>94111398</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -16006,13 +16006,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>6083</v>
+        <v>6084</v>
       </c>
       <c r="D306" t="n">
         <v>1239</v>
       </c>
       <c r="E306" t="n">
-        <v>26900708</v>
+        <v>26906084</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -16771,13 +16771,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>76024</v>
+        <v>76025</v>
       </c>
       <c r="D321" t="n">
         <v>15907</v>
       </c>
       <c r="E321" t="n">
-        <v>132420461</v>
+        <v>132426430</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -17077,13 +17077,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>47890</v>
+        <v>47891</v>
       </c>
       <c r="D327" t="n">
         <v>9067</v>
       </c>
       <c r="E327" t="n">
-        <v>240480465</v>
+        <v>240487313</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -17995,13 +17995,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D345" t="n">
         <v>21</v>
       </c>
       <c r="E345" t="n">
-        <v>5633874</v>
+        <v>5675074</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18404</v>
+        <v>18405</v>
       </c>
       <c r="D399" t="n">
         <v>3382</v>
       </c>
       <c r="E399" t="n">
-        <v>72097061</v>
+        <v>72117092</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -20851,13 +20851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>16554</v>
+        <v>16555</v>
       </c>
       <c r="D401" t="n">
         <v>2942</v>
       </c>
       <c r="E401" t="n">
-        <v>48244387</v>
+        <v>48245887</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -22075,13 +22075,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>70509</v>
+        <v>70510</v>
       </c>
       <c r="D425" t="n">
         <v>13142</v>
       </c>
       <c r="E425" t="n">
-        <v>343021318</v>
+        <v>343031318</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>20230</v>
+        <v>20231</v>
       </c>
       <c r="D435" t="n">
         <v>4036</v>
       </c>
       <c r="E435" t="n">
-        <v>93010853</v>
+        <v>93020853</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>14441</v>
+        <v>14442</v>
       </c>
       <c r="D437" t="n">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="E437" t="n">
-        <v>69127602</v>
+        <v>69130582</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -23044,13 +23044,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>31758</v>
+        <v>31759</v>
       </c>
       <c r="D444" t="n">
         <v>6195</v>
       </c>
       <c r="E444" t="n">
-        <v>161380032</v>
+        <v>161385286</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>35033</v>
+        <v>35036</v>
       </c>
       <c r="D463" t="n">
         <v>7039</v>
       </c>
       <c r="E463" t="n">
-        <v>159828648</v>
+        <v>159879837</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416403</v>
+        <v>416409</v>
       </c>
       <c r="D477" t="n">
         <v>70491</v>
       </c>
       <c r="E477" t="n">
-        <v>723832135</v>
+        <v>723871781</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -24982,13 +24982,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="D482" t="n">
         <v>520</v>
       </c>
       <c r="E482" t="n">
-        <v>69648130</v>
+        <v>69649630</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -25033,13 +25033,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D483" t="n">
         <v>33</v>
       </c>
       <c r="E483" t="n">
-        <v>5323530</v>
+        <v>5333530</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>291440</v>
+        <v>291449</v>
       </c>
       <c r="D484" t="n">
         <v>42556</v>
       </c>
       <c r="E484" t="n">
-        <v>1761369173</v>
+        <v>1761471642</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25135,13 +25135,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="D485" t="n">
         <v>420</v>
       </c>
       <c r="E485" t="n">
-        <v>98156372</v>
+        <v>98202958</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230080</v>
+        <v>230083</v>
       </c>
       <c r="D487" t="n">
         <v>33834</v>
       </c>
       <c r="E487" t="n">
-        <v>1801816842</v>
+        <v>1801990470</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12207</v>
+        <v>12209</v>
       </c>
       <c r="D491" t="n">
         <v>1838</v>
       </c>
       <c r="E491" t="n">
-        <v>74107425</v>
+        <v>74110981</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184196</v>
+        <v>184197</v>
       </c>
       <c r="D505" t="n">
         <v>27732</v>
       </c>
       <c r="E505" t="n">
-        <v>332557721</v>
+        <v>332561206</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56031</v>
+        <v>56033</v>
       </c>
       <c r="D520" t="n">
         <v>8768</v>
       </c>
       <c r="E520" t="n">
-        <v>252086256</v>
+        <v>252149237</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27889,13 +27889,13 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D539" t="n">
         <v>248</v>
       </c>
       <c r="E539" t="n">
-        <v>7569421</v>
+        <v>7581562</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>24512</v>
+        <v>24513</v>
       </c>
       <c r="D545" t="n">
         <v>6169</v>
       </c>
       <c r="E545" t="n">
-        <v>88163649</v>
+        <v>88165149</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39255</v>
+        <v>39269</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>59799025</v>
+        <v>59810882</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>17967</v>
+        <v>17975</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>69446902</v>
+        <v>69519959</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -28858,13 +28858,13 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D558" t="n">
         <v>133</v>
       </c>
       <c r="E558" t="n">
-        <v>1385587</v>
+        <v>1388087</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -31153,13 +31153,13 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>32181</v>
+        <v>32182</v>
       </c>
       <c r="D603" t="n">
         <v>6078</v>
       </c>
       <c r="E603" t="n">
-        <v>170255679</v>
+        <v>170257117</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -41863,13 +41863,13 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>50342</v>
+        <v>50343</v>
       </c>
       <c r="D813" t="n">
         <v>10678</v>
       </c>
       <c r="E813" t="n">
-        <v>86496231</v>
+        <v>86497731</v>
       </c>
       <c r="F813" t="inlineStr">
         <is>
@@ -43444,13 +43444,13 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>58387</v>
+        <v>58388</v>
       </c>
       <c r="D844" t="n">
         <v>11374</v>
       </c>
       <c r="E844" t="n">
-        <v>290383199</v>
+        <v>290384699</v>
       </c>
       <c r="F844" t="inlineStr">
         <is>
@@ -44923,13 +44923,13 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>41825</v>
+        <v>41827</v>
       </c>
       <c r="D873" t="n">
         <v>9646</v>
       </c>
       <c r="E873" t="n">
-        <v>75018942</v>
+        <v>75019853</v>
       </c>
       <c r="F873" t="inlineStr">
         <is>
@@ -45994,13 +45994,13 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>167268</v>
+        <v>167269</v>
       </c>
       <c r="D894" t="n">
         <v>30742</v>
       </c>
       <c r="E894" t="n">
-        <v>280746100</v>
+        <v>280748586</v>
       </c>
       <c r="F894" t="inlineStr">
         <is>
@@ -47065,13 +47065,13 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>96837</v>
+        <v>96838</v>
       </c>
       <c r="D915" t="n">
         <v>17575</v>
       </c>
       <c r="E915" t="n">
-        <v>463177376</v>
+        <v>463179168</v>
       </c>
       <c r="F915" t="inlineStr">
         <is>
@@ -47218,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>79062</v>
+        <v>79063</v>
       </c>
       <c r="D918" t="n">
         <v>13382</v>
       </c>
       <c r="E918" t="n">
-        <v>390373035</v>
+        <v>390375033</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
@@ -47932,13 +47932,13 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>127918</v>
+        <v>127919</v>
       </c>
       <c r="D932" t="n">
         <v>26954</v>
       </c>
       <c r="E932" t="n">
-        <v>215179588</v>
+        <v>215181430</v>
       </c>
       <c r="F932" t="inlineStr">
         <is>
@@ -48646,13 +48646,13 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>29822</v>
+        <v>29823</v>
       </c>
       <c r="D946" t="n">
         <v>5383</v>
       </c>
       <c r="E946" t="n">
-        <v>141897706</v>
+        <v>141907706</v>
       </c>
       <c r="F946" t="inlineStr">
         <is>
